--- a/biology/Zoologie/Gunma_Insect_World/Gunma_Insect_World.xlsx
+++ b/biology/Zoologie/Gunma_Insect_World/Gunma_Insect_World.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Gunma Insect World (ぐんま昆虫の森, Gunma Konchū-no Mori?) est une installation d'observation des insectes située à Kiryū dans la préfecture de Gunma au Japon est un établissement d'apprentissage pour observer l'écologie des insectes. Conçu par l'architecte Tadao Ando, construit par la Takenaka Corporation et trois autres sociétés, le musée ouvre ses portes en 2005.
 </t>
